--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Il34</t>
+  </si>
+  <si>
+    <t>Csf1r</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il34</t>
-  </si>
-  <si>
-    <t>Csf1r</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.434700666666667</v>
+        <v>1.471704</v>
       </c>
       <c r="H2">
-        <v>4.304102</v>
+        <v>4.415112</v>
       </c>
       <c r="I2">
-        <v>0.09362444392770469</v>
+        <v>0.08657490103749592</v>
       </c>
       <c r="J2">
-        <v>0.09362444392770468</v>
+        <v>0.0865749010374959</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.03403033333334</v>
+        <v>0.3667156666666667</v>
       </c>
       <c r="N2">
-        <v>63.10209100000001</v>
+        <v>1.100147</v>
       </c>
       <c r="O2">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="P2">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="Q2">
-        <v>30.17753734192023</v>
+        <v>0.5396969134959999</v>
       </c>
       <c r="R2">
-        <v>271.5978360772821</v>
+        <v>4.857272221463999</v>
       </c>
       <c r="S2">
-        <v>0.009650225171337318</v>
+        <v>0.000163928193429477</v>
       </c>
       <c r="T2">
-        <v>0.009650225171337316</v>
+        <v>0.000163928193429477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.434700666666667</v>
+        <v>1.471704</v>
       </c>
       <c r="H3">
-        <v>4.304102</v>
+        <v>4.415112</v>
       </c>
       <c r="I3">
-        <v>0.09362444392770469</v>
+        <v>0.08657490103749592</v>
       </c>
       <c r="J3">
-        <v>0.09362444392770468</v>
+        <v>0.0865749010374959</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.853217</v>
       </c>
       <c r="N3">
-        <v>5.559651</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O3">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202681</v>
       </c>
       <c r="P3">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202679</v>
       </c>
       <c r="Q3">
-        <v>2.658811665378</v>
+        <v>2.727386871768</v>
       </c>
       <c r="R3">
-        <v>23.929304988402</v>
+        <v>24.546481845912</v>
       </c>
       <c r="S3">
-        <v>0.0008502394005303355</v>
+        <v>0.0008284197880177698</v>
       </c>
       <c r="T3">
-        <v>0.0008502394005303353</v>
+        <v>0.0008284197880177696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.434700666666667</v>
+        <v>1.471704</v>
       </c>
       <c r="H4">
-        <v>4.304102</v>
+        <v>4.415112</v>
       </c>
       <c r="I4">
-        <v>0.09362444392770469</v>
+        <v>0.08657490103749592</v>
       </c>
       <c r="J4">
-        <v>0.09362444392770468</v>
+        <v>0.0865749010374959</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.589601</v>
+        <v>1.599526666666667</v>
       </c>
       <c r="N4">
-        <v>4.768803</v>
+        <v>4.79858</v>
       </c>
       <c r="O4">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="P4">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="Q4">
-        <v>2.280601614434</v>
+        <v>2.35402979344</v>
       </c>
       <c r="R4">
-        <v>20.525414529906</v>
+        <v>21.18626814096</v>
       </c>
       <c r="S4">
-        <v>0.0007292947352211974</v>
+        <v>0.0007150158573598072</v>
       </c>
       <c r="T4">
-        <v>0.0007292947352211973</v>
+        <v>0.0007150158573598071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.434700666666667</v>
+        <v>1.471704</v>
       </c>
       <c r="H5">
-        <v>4.304102</v>
+        <v>4.415112</v>
       </c>
       <c r="I5">
-        <v>0.09362444392770469</v>
+        <v>0.08657490103749592</v>
       </c>
       <c r="J5">
-        <v>0.09362444392770468</v>
+        <v>0.0865749010374959</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>179.590866</v>
+        <v>189.8529766666667</v>
       </c>
       <c r="N5">
-        <v>538.772598</v>
+        <v>569.55893</v>
       </c>
       <c r="O5">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976067</v>
       </c>
       <c r="P5">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976066</v>
       </c>
       <c r="Q5">
-        <v>257.6591351774441</v>
+        <v>279.40738517224</v>
       </c>
       <c r="R5">
-        <v>2318.932216596996</v>
+        <v>2514.66646655016</v>
       </c>
       <c r="S5">
-        <v>0.08239468462061583</v>
+        <v>0.08486753719868886</v>
       </c>
       <c r="T5">
-        <v>0.08239468462061582</v>
+        <v>0.08486753719868885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>14.621358</v>
       </c>
       <c r="I6">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="J6">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.03403033333334</v>
+        <v>0.3667156666666667</v>
       </c>
       <c r="N6">
-        <v>63.10209100000001</v>
+        <v>1.100147</v>
       </c>
       <c r="O6">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="P6">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="Q6">
-        <v>102.5153625621754</v>
+        <v>1.787293682180667</v>
       </c>
       <c r="R6">
-        <v>922.6382630595782</v>
+        <v>16.085643139626</v>
       </c>
       <c r="S6">
-        <v>0.03278254023969093</v>
+        <v>0.0005428747452897302</v>
       </c>
       <c r="T6">
-        <v>0.03278254023969094</v>
+        <v>0.0005428747452897302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>14.621358</v>
       </c>
       <c r="I7">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="J7">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>1.853217</v>
       </c>
       <c r="N7">
-        <v>5.559651</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O7">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202681</v>
       </c>
       <c r="P7">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202679</v>
       </c>
       <c r="Q7">
-        <v>9.032183069561999</v>
+        <v>9.032183069562</v>
       </c>
       <c r="R7">
-        <v>81.289647626058</v>
+        <v>81.28964762605801</v>
       </c>
       <c r="S7">
-        <v>0.002888327149509798</v>
+        <v>0.002743446212665029</v>
       </c>
       <c r="T7">
-        <v>0.002888327149509799</v>
+        <v>0.002743446212665029</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>14.621358</v>
       </c>
       <c r="I8">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="J8">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.589601</v>
+        <v>1.599526666666667</v>
       </c>
       <c r="N8">
-        <v>4.768803</v>
+        <v>4.79858</v>
       </c>
       <c r="O8">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="P8">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="Q8">
-        <v>7.747375099386</v>
+        <v>7.795750674626667</v>
       </c>
       <c r="R8">
-        <v>69.726375894474</v>
+        <v>70.16175607164001</v>
       </c>
       <c r="S8">
-        <v>0.002477469030981221</v>
+        <v>0.002367890741194035</v>
       </c>
       <c r="T8">
-        <v>0.002477469030981221</v>
+        <v>0.002367890741194035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>14.621358</v>
       </c>
       <c r="I9">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="J9">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>179.590866</v>
+        <v>189.8529766666667</v>
       </c>
       <c r="N9">
-        <v>538.772598</v>
+        <v>569.55893</v>
       </c>
       <c r="O9">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976067</v>
       </c>
       <c r="P9">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976066</v>
       </c>
       <c r="Q9">
-        <v>875.2874484386761</v>
+        <v>925.3027797363267</v>
       </c>
       <c r="R9">
-        <v>7877.587035948085</v>
+        <v>8327.725017626941</v>
       </c>
       <c r="S9">
-        <v>0.279900936626297</v>
+        <v>0.2810525857464878</v>
       </c>
       <c r="T9">
-        <v>0.279900936626297</v>
+        <v>0.2810525857464877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.952779999999999</v>
+        <v>10.65370933333333</v>
       </c>
       <c r="H10">
-        <v>26.85834</v>
+        <v>31.961128</v>
       </c>
       <c r="I10">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168676</v>
       </c>
       <c r="J10">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168675</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.03403033333334</v>
+        <v>0.3667156666666667</v>
       </c>
       <c r="N10">
-        <v>63.10209100000001</v>
+        <v>1.100147</v>
       </c>
       <c r="O10">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="P10">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="Q10">
-        <v>188.31304608766</v>
+        <v>3.906882120646222</v>
       </c>
       <c r="R10">
-        <v>1694.81741478894</v>
+        <v>35.161939085816</v>
       </c>
       <c r="S10">
-        <v>0.06021907211500468</v>
+        <v>0.001186681101862937</v>
       </c>
       <c r="T10">
-        <v>0.06021907211500468</v>
+        <v>0.001186681101862936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.952779999999999</v>
+        <v>10.65370933333333</v>
       </c>
       <c r="H11">
-        <v>26.85834</v>
+        <v>31.961128</v>
       </c>
       <c r="I11">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168676</v>
       </c>
       <c r="J11">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168675</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>1.853217</v>
       </c>
       <c r="N11">
-        <v>5.559651</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O11">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202681</v>
       </c>
       <c r="P11">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202679</v>
       </c>
       <c r="Q11">
-        <v>16.59144409326</v>
+        <v>19.743635249592</v>
       </c>
       <c r="R11">
-        <v>149.32299683934</v>
+        <v>177.692717246328</v>
       </c>
       <c r="S11">
-        <v>0.005305640735475118</v>
+        <v>0.005996955656519883</v>
       </c>
       <c r="T11">
-        <v>0.005305640735475118</v>
+        <v>0.00599695565651988</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.952779999999999</v>
+        <v>10.65370933333333</v>
       </c>
       <c r="H12">
-        <v>26.85834</v>
+        <v>31.961128</v>
       </c>
       <c r="I12">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168676</v>
       </c>
       <c r="J12">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168675</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.589601</v>
+        <v>1.599526666666667</v>
       </c>
       <c r="N12">
-        <v>4.768803</v>
+        <v>4.79858</v>
       </c>
       <c r="O12">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="P12">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="Q12">
-        <v>14.23134804078</v>
+        <v>17.04089217758222</v>
       </c>
       <c r="R12">
-        <v>128.08213236702</v>
+        <v>153.36802959824</v>
       </c>
       <c r="S12">
-        <v>0.004550925131137898</v>
+        <v>0.005176021206054692</v>
       </c>
       <c r="T12">
-        <v>0.004550925131137898</v>
+        <v>0.005176021206054691</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.952779999999999</v>
+        <v>10.65370933333333</v>
       </c>
       <c r="H13">
-        <v>26.85834</v>
+        <v>31.961128</v>
       </c>
       <c r="I13">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168676</v>
       </c>
       <c r="J13">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168675</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>179.590866</v>
+        <v>189.8529766666667</v>
       </c>
       <c r="N13">
-        <v>538.772598</v>
+        <v>569.55893</v>
       </c>
       <c r="O13">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976067</v>
       </c>
       <c r="P13">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976066</v>
       </c>
       <c r="Q13">
-        <v>1607.83751330748</v>
+        <v>2022.638429474782</v>
       </c>
       <c r="R13">
-        <v>14470.53761976732</v>
+        <v>18203.74586527304</v>
       </c>
       <c r="S13">
-        <v>0.5141570654536697</v>
+        <v>0.6143586435524301</v>
       </c>
       <c r="T13">
-        <v>0.5141570654536697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.06272999999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.18819</v>
-      </c>
-      <c r="I14">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="J14">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>21.03403033333334</v>
-      </c>
-      <c r="N14">
-        <v>63.10209100000001</v>
-      </c>
-      <c r="O14">
-        <v>0.1030737782409588</v>
-      </c>
-      <c r="P14">
-        <v>0.1030737782409588</v>
-      </c>
-      <c r="Q14">
-        <v>1.31946472281</v>
-      </c>
-      <c r="R14">
-        <v>11.87518250529</v>
-      </c>
-      <c r="S14">
-        <v>0.0004219407149258938</v>
-      </c>
-      <c r="T14">
-        <v>0.0004219407149258938</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.06272999999999999</v>
-      </c>
-      <c r="H15">
-        <v>0.18819</v>
-      </c>
-      <c r="I15">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="J15">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.853217</v>
-      </c>
-      <c r="N15">
-        <v>5.559651</v>
-      </c>
-      <c r="O15">
-        <v>0.009081382648177615</v>
-      </c>
-      <c r="P15">
-        <v>0.009081382648177615</v>
-      </c>
-      <c r="Q15">
-        <v>0.11625230241</v>
-      </c>
-      <c r="R15">
-        <v>1.04627072169</v>
-      </c>
-      <c r="S15">
-        <v>3.717536266236344E-05</v>
-      </c>
-      <c r="T15">
-        <v>3.717536266236344E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06272999999999999</v>
-      </c>
-      <c r="H16">
-        <v>0.18819</v>
-      </c>
-      <c r="I16">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="J16">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.589601</v>
-      </c>
-      <c r="N16">
-        <v>4.768803</v>
-      </c>
-      <c r="O16">
-        <v>0.007789576147275675</v>
-      </c>
-      <c r="P16">
-        <v>0.007789576147275675</v>
-      </c>
-      <c r="Q16">
-        <v>0.09971567073</v>
-      </c>
-      <c r="R16">
-        <v>0.89744103657</v>
-      </c>
-      <c r="S16">
-        <v>3.188724993535867E-05</v>
-      </c>
-      <c r="T16">
-        <v>3.188724993535867E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.06272999999999999</v>
-      </c>
-      <c r="H17">
-        <v>0.18819</v>
-      </c>
-      <c r="I17">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="J17">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>179.590866</v>
-      </c>
-      <c r="N17">
-        <v>538.772598</v>
-      </c>
-      <c r="O17">
-        <v>0.8800552629635878</v>
-      </c>
-      <c r="P17">
-        <v>0.8800552629635878</v>
-      </c>
-      <c r="Q17">
-        <v>11.26573502418</v>
-      </c>
-      <c r="R17">
-        <v>101.39161521762</v>
-      </c>
-      <c r="S17">
-        <v>0.003602576263005313</v>
-      </c>
-      <c r="T17">
-        <v>0.003602576263005313</v>
+        <v>0.61435864355243</v>
       </c>
     </row>
   </sheetData>
